--- a/Proyectos/Viaticos/Linea base/02. Planeación/Viaticos-PlanProyecto.xlsx
+++ b/Proyectos/Viaticos/Linea base/02. Planeación/Viaticos-PlanProyecto.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8445" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="8445"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Generales" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <definedName name="Print_Area_0" localSheetId="4">'Plan Riesgos'!$A$2:$E$20</definedName>
     <definedName name="Print_Area_0_0" localSheetId="4">'Plan Riesgos'!$A$2:$E$20</definedName>
   </definedNames>
-  <calcPr calcId="125725" iterateDelta="1E-4"/>
+  <calcPr calcId="125725"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="156">
   <si>
     <t>Plan de Proyecto</t>
   </si>
@@ -595,9 +595,6 @@
     <t>Internet</t>
   </si>
   <si>
-    <t>Abierto</t>
-  </si>
-  <si>
     <t>No obtener satisfacción del cliente con el producto desarrollado ocasionando múltiples correcciones en el software</t>
   </si>
   <si>
@@ -647,6 +644,21 @@
   </si>
   <si>
     <t>Tester/Diseñador</t>
+  </si>
+  <si>
+    <t>Ocurrido</t>
+  </si>
+  <si>
+    <t>Cerrado</t>
+  </si>
+  <si>
+    <t>Notificar la finalización del proyecto al cliente</t>
+  </si>
+  <si>
+    <t>Se dio a conocer el resultado final del proyecto</t>
+  </si>
+  <si>
+    <t>Una vez por proyecto, al finalizarlo</t>
   </si>
 </sst>
 </file>
@@ -1529,7 +1541,7 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1761,9 +1773,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2021,6 +2030,21 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2052,12 +2076,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="36" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2367,15 +2385,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:colOff>1285875</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>232042</xdr:colOff>
+      <xdr:colOff>603517</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>34314</xdr:rowOff>
+      <xdr:rowOff>15264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2392,7 +2410,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7943850" y="66675"/>
+          <a:off x="8963025" y="47625"/>
           <a:ext cx="2498992" cy="824889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2409,16 +2427,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>962025</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>317767</xdr:colOff>
+      <xdr:colOff>489217</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>824889</xdr:rowOff>
+      <xdr:rowOff>853464</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2435,7 +2453,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6200775" y="0"/>
+          <a:off x="7000875" y="28575"/>
           <a:ext cx="2498992" cy="824889"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2458,8 +2476,8 @@
       <xdr:rowOff>54428</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>135884</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>299170</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>879317</xdr:rowOff>
     </xdr:to>
@@ -2759,7 +2777,7 @@
   </sheetPr>
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -3027,74 +3045,74 @@
     <row r="1" spans="1:7" ht="60" customHeight="1"/>
     <row r="2" spans="1:7" ht="9.75" customHeight="1"/>
     <row r="3" spans="1:7" ht="20.25" customHeight="1">
-      <c r="A3" s="96"/>
-      <c r="B3" s="97" t="s">
+      <c r="A3" s="95"/>
+      <c r="B3" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="96"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="86" t="s">
         <v>93</v>
       </c>
-      <c r="D4" s="87"/>
-      <c r="E4" s="87"/>
-    </row>
-    <row r="5" spans="1:7" s="88" customFormat="1" ht="12.75" customHeight="1">
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+    </row>
+    <row r="5" spans="1:7" s="87" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="5"/>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="85" t="s">
         <v>94</v>
       </c>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="161" t="s">
+      <c r="C6" s="160" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="90"/>
-      <c r="E6" s="90"/>
+      <c r="D6" s="89"/>
+      <c r="E6" s="89"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="84" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="163">
+      <c r="C7" s="162">
         <v>42457</v>
       </c>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
     </row>
     <row r="8" spans="1:7" ht="24.75" customHeight="1">
-      <c r="C8" s="89"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="88"/>
+      <c r="C8" s="88"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="87"/>
     </row>
     <row r="9" spans="1:7" ht="18">
-      <c r="A9" s="98"/>
-      <c r="B9" s="96" t="s">
+      <c r="A9" s="97"/>
+      <c r="B9" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="98"/>
+      <c r="C9" s="97"/>
     </row>
     <row r="10" spans="1:7" ht="12.75" customHeight="1">
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="164" t="s">
+      <c r="C10" s="163" t="s">
         <v>96</v>
       </c>
       <c r="E10" s="10" t="s">
@@ -3105,82 +3123,82 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="12.75" customHeight="1">
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="90" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="42.75" customHeight="1">
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="84" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="161" t="s">
+      <c r="C12" s="160" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="92"/>
-      <c r="C13" s="90"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="89"/>
     </row>
     <row r="14" spans="1:7" ht="18">
-      <c r="A14" s="98"/>
-      <c r="B14" s="96" t="s">
+      <c r="A14" s="97"/>
+      <c r="B14" s="95" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="98"/>
-    </row>
-    <row r="15" spans="1:7" s="99" customFormat="1" ht="16.5" customHeight="1">
+      <c r="C14" s="97"/>
+    </row>
+    <row r="15" spans="1:7" s="98" customFormat="1" ht="16.5" customHeight="1">
       <c r="B15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="100" t="s">
+      <c r="C15" s="99" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="25.5">
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="160" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="25.5">
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="92" t="s">
         <v>99</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="93" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="B18" s="93"/>
-      <c r="C18" s="94"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="93"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="B19" s="93"/>
-      <c r="C19" s="94"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="93"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="B20" s="93"/>
-      <c r="C20" s="94"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="93"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="B21" s="93"/>
-      <c r="C21" s="94"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="93"/>
     </row>
     <row r="22" spans="1:4" ht="18">
-      <c r="A22" s="96"/>
-      <c r="B22" s="96" t="s">
+      <c r="A22" s="95"/>
+      <c r="B22" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
     </row>
     <row r="23" spans="1:4" ht="15.75">
-      <c r="A23" s="122"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="9" t="s">
         <v>90</v>
       </c>
@@ -3192,83 +3210,91 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="122"/>
-      <c r="B24" s="85" t="s">
+      <c r="A24" s="121"/>
+      <c r="B24" s="84" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="167">
         <v>42452</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="167">
+        <v>42452</v>
+      </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="122"/>
-      <c r="B25" s="85" t="s">
+      <c r="A25" s="121"/>
+      <c r="B25" s="84" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="168">
+      <c r="C25" s="167">
         <v>42457</v>
       </c>
-      <c r="D25" s="85"/>
+      <c r="D25" s="167">
+        <v>42457</v>
+      </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="122"/>
-      <c r="B26" s="85" t="s">
+      <c r="A26" s="121"/>
+      <c r="B26" s="84" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="168">
+      <c r="C26" s="167">
         <v>42471</v>
       </c>
-      <c r="D26" s="85"/>
+      <c r="D26" s="172">
+        <v>42471</v>
+      </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="122"/>
-      <c r="B27" s="85" t="s">
+      <c r="A27" s="121"/>
+      <c r="B27" s="84" t="s">
         <v>105</v>
       </c>
-      <c r="C27" s="168">
+      <c r="C27" s="167">
         <v>42475</v>
       </c>
-      <c r="D27" s="85"/>
+      <c r="D27" s="172">
+        <v>42478</v>
+      </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="B28" s="85"/>
-      <c r="C28" s="169"/>
-      <c r="D28" s="85"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="171"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="B29" s="121"/>
-      <c r="C29" s="90"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="89"/>
     </row>
     <row r="30" spans="1:4" ht="18">
-      <c r="A30" s="98"/>
-      <c r="B30" s="96" t="s">
+      <c r="A30" s="97"/>
+      <c r="B30" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="98"/>
+      <c r="C30" s="97"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="B31" s="171" t="s">
+      <c r="B31" s="175" t="s">
         <v>106</v>
       </c>
-      <c r="C31" s="172"/>
+      <c r="C31" s="176"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="B32" s="95"/>
-      <c r="C32" s="95"/>
+      <c r="B32" s="94"/>
+      <c r="C32" s="94"/>
     </row>
     <row r="33" spans="1:3" ht="18">
-      <c r="A33" s="98"/>
-      <c r="B33" s="96" t="s">
+      <c r="A33" s="97"/>
+      <c r="B33" s="95" t="s">
         <v>107</v>
       </c>
-      <c r="C33" s="98"/>
+      <c r="C33" s="97"/>
     </row>
     <row r="34" spans="1:3">
-      <c r="B34" s="172" t="s">
+      <c r="B34" s="176" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="172"/>
+      <c r="C34" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3754,312 +3780,312 @@
     <row r="1" spans="1:7" ht="67.5" customHeight="1"/>
     <row r="2" spans="1:7" ht="14.25" customHeight="1"/>
     <row r="3" spans="1:7" ht="24" customHeight="1">
-      <c r="B3" s="114" t="s">
+      <c r="B3" s="113" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="103" customFormat="1" ht="30.75" customHeight="1">
-      <c r="B4" s="115" t="s">
+    <row r="4" spans="1:7" s="102" customFormat="1" ht="30.75" customHeight="1">
+      <c r="B4" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="115" t="s">
+      <c r="D4" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="176" t="s">
+      <c r="E4" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="176"/>
+      <c r="F4" s="180"/>
       <c r="G4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="17.25" customHeight="1">
-      <c r="B5" s="162" t="s">
+      <c r="B5" s="161" t="s">
         <v>108</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="117">
+      <c r="D5" s="116">
         <v>5542583572</v>
       </c>
-      <c r="E5" s="175" t="s">
+      <c r="E5" s="179" t="s">
         <v>117</v>
       </c>
-      <c r="F5" s="174"/>
+      <c r="F5" s="178"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A6" s="112"/>
-      <c r="B6" s="162" t="s">
+      <c r="A6" s="111"/>
+      <c r="B6" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="117">
+      <c r="D6" s="116">
         <v>3318039095</v>
       </c>
-      <c r="E6" s="175" t="s">
+      <c r="E6" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="174"/>
+      <c r="F6" s="178"/>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A7" s="112"/>
-      <c r="B7" s="162" t="s">
+      <c r="A7" s="111"/>
+      <c r="B7" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="C7" s="113" t="s">
+      <c r="C7" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="117">
+      <c r="D7" s="116">
         <v>3318039095</v>
       </c>
-      <c r="E7" s="175" t="s">
+      <c r="E7" s="179" t="s">
         <v>110</v>
       </c>
-      <c r="F7" s="174"/>
+      <c r="F7" s="178"/>
     </row>
     <row r="8" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A8" s="112"/>
-      <c r="B8" s="162" t="s">
+      <c r="A8" s="111"/>
+      <c r="B8" s="161" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="113" t="s">
+      <c r="C8" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="117">
+      <c r="D8" s="116">
         <v>3319638873</v>
       </c>
-      <c r="E8" s="175" t="s">
+      <c r="E8" s="179" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="174"/>
+      <c r="F8" s="178"/>
     </row>
     <row r="9" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A9" s="112"/>
-      <c r="B9" s="162" t="s">
+      <c r="A9" s="111"/>
+      <c r="B9" s="161" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="D9" s="117">
+      <c r="C9" s="112" t="s">
+        <v>150</v>
+      </c>
+      <c r="D9" s="116">
         <v>3312430761</v>
       </c>
-      <c r="E9" s="175" t="s">
+      <c r="E9" s="179" t="s">
         <v>115</v>
       </c>
-      <c r="F9" s="174"/>
+      <c r="F9" s="178"/>
     </row>
     <row r="10" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A10" s="112"/>
-      <c r="B10" s="162" t="s">
+      <c r="A10" s="111"/>
+      <c r="B10" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="C10" s="113" t="s">
+      <c r="C10" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="117">
+      <c r="D10" s="116">
         <v>3310739239</v>
       </c>
-      <c r="E10" s="175" t="s">
+      <c r="E10" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="F10" s="174"/>
+      <c r="F10" s="178"/>
     </row>
     <row r="11" spans="1:7" ht="17.25" customHeight="1">
-      <c r="A11" s="112"/>
-      <c r="B11" s="162" t="s">
+      <c r="A11" s="111"/>
+      <c r="B11" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="C11" s="113" t="s">
+      <c r="C11" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="117">
+      <c r="D11" s="116">
         <v>3310739239</v>
       </c>
-      <c r="E11" s="175" t="s">
+      <c r="E11" s="179" t="s">
         <v>116</v>
       </c>
-      <c r="F11" s="174"/>
+      <c r="F11" s="178"/>
     </row>
     <row r="12" spans="1:7" ht="15.75">
-      <c r="A12" s="108"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
+      <c r="A12" s="107"/>
+      <c r="B12" s="107"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="101"/>
     </row>
     <row r="13" spans="1:7" ht="23.25" customHeight="1">
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="113" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="103" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B14" s="116" t="s">
+    <row r="14" spans="1:7" s="102" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B14" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="116" t="s">
+      <c r="C14" s="115" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="116" t="s">
+      <c r="D14" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="G14" s="111"/>
+      <c r="G14" s="110"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="118" t="s">
+      <c r="B15" s="117" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="119"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="120"/>
-      <c r="G15" s="109"/>
+      <c r="C15" s="118"/>
+      <c r="D15" s="118"/>
+      <c r="E15" s="119"/>
+      <c r="G15" s="108"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="118"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="119"/>
-      <c r="E16" s="120"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="118"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="120"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="118"/>
+      <c r="D17" s="118"/>
+      <c r="E17" s="119"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="118"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="120"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
     </row>
     <row r="19" spans="2:7" ht="27.75" customHeight="1">
-      <c r="C19" s="110"/>
-      <c r="D19" s="110"/>
-      <c r="E19" s="110"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
     </row>
     <row r="20" spans="2:7" ht="25.5">
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="106" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="2:7" s="103" customFormat="1" ht="33.75" customHeight="1">
-      <c r="B21" s="115" t="s">
+    <row r="21" spans="2:7" s="102" customFormat="1" ht="33.75" customHeight="1">
+      <c r="B21" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="115" t="s">
+      <c r="C21" s="114" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="115" t="s">
+      <c r="D21" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="176" t="s">
+      <c r="E21" s="180" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="176"/>
+      <c r="F21" s="180"/>
       <c r="G21" s="6"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="162" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="117" t="s">
+      <c r="B22" s="161" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="116" t="s">
         <v>119</v>
       </c>
-      <c r="D22" s="117"/>
-      <c r="E22" s="175" t="s">
+      <c r="D22" s="116"/>
+      <c r="E22" s="179" t="s">
         <v>118</v>
       </c>
-      <c r="F22" s="174"/>
+      <c r="F22" s="178"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="162"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="173"/>
-      <c r="F23" s="174"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="116"/>
+      <c r="D23" s="116"/>
+      <c r="E23" s="177"/>
+      <c r="F23" s="178"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="162"/>
-      <c r="C24" s="117"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="173"/>
-      <c r="F24" s="174"/>
+      <c r="B24" s="161"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="116"/>
+      <c r="E24" s="177"/>
+      <c r="F24" s="178"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="162"/>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="173"/>
-      <c r="F25" s="174"/>
+      <c r="B25" s="161"/>
+      <c r="C25" s="116"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="177"/>
+      <c r="F25" s="178"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="162"/>
-      <c r="C26" s="117"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="173"/>
-      <c r="F26" s="174"/>
+      <c r="B26" s="161"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="177"/>
+      <c r="F26" s="178"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="162"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="173"/>
-      <c r="F27" s="174"/>
+      <c r="B27" s="161"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="177"/>
+      <c r="F27" s="178"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="162"/>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="173"/>
-      <c r="F28" s="174"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="178"/>
     </row>
     <row r="29" spans="2:7" ht="15.75">
-      <c r="C29" s="103"/>
-      <c r="D29" s="104"/>
-      <c r="E29" s="105"/>
+      <c r="C29" s="102"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="104"/>
     </row>
     <row r="30" spans="2:7" ht="15.75">
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="105"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="104"/>
     </row>
     <row r="31" spans="2:7" ht="15.75">
-      <c r="C31" s="103"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="105"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="104"/>
     </row>
     <row r="32" spans="2:7" ht="15.75">
-      <c r="C32" s="103"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="104"/>
     </row>
     <row r="33" spans="3:5" ht="15.75">
-      <c r="C33" s="103"/>
-      <c r="D33" s="104"/>
-      <c r="E33" s="105"/>
+      <c r="C33" s="102"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="104"/>
     </row>
     <row r="34" spans="3:5" ht="15.75">
-      <c r="C34" s="103"/>
-      <c r="D34" s="104"/>
-      <c r="E34" s="106"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="105"/>
     </row>
     <row r="35" spans="3:5" ht="15.75">
-      <c r="C35" s="103"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="105"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="104"/>
     </row>
     <row r="36" spans="3:5" ht="15.75">
-      <c r="C36" s="103"/>
-      <c r="D36" s="104"/>
-      <c r="E36" s="105"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="104"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -4128,7 +4154,7 @@
     <col min="4" max="4" width="17.85546875" style="7" customWidth="1"/>
     <col min="5" max="5" width="48.28515625" style="7" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="23" style="7" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="7" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" style="7"/>
     <col min="10" max="10" width="32.42578125" style="7" customWidth="1"/>
     <col min="11" max="11" width="40.7109375" style="7" customWidth="1"/>
@@ -4932,119 +4958,131 @@
       <c r="B5" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="165" t="s">
+      <c r="C5" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="165" t="s">
+      <c r="D5" s="164" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="165" t="s">
+      <c r="E5" s="164" t="s">
         <v>124</v>
       </c>
-      <c r="F5" s="165" t="s">
+      <c r="F5" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="G5" s="166"/>
+      <c r="G5" s="165"/>
     </row>
     <row r="6" spans="1:12" ht="29.25" customHeight="1">
       <c r="B6" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="165" t="s">
+      <c r="C6" s="164" t="s">
         <v>95</v>
       </c>
-      <c r="D6" s="165" t="s">
+      <c r="D6" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="165" t="s">
+      <c r="E6" s="164" t="s">
         <v>125</v>
       </c>
-      <c r="F6" s="165" t="s">
+      <c r="F6" s="164" t="s">
         <v>127</v>
       </c>
-      <c r="G6" s="166"/>
+      <c r="G6" s="165"/>
       <c r="L6" s="8"/>
     </row>
     <row r="7" spans="1:12" ht="27.75" customHeight="1">
       <c r="B7" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="165" t="s">
+      <c r="C7" s="164" t="s">
         <v>111</v>
       </c>
-      <c r="D7" s="165" t="s">
+      <c r="D7" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="165" t="s">
+      <c r="E7" s="164" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="165" t="s">
+      <c r="F7" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="G7" s="166"/>
+      <c r="G7" s="165"/>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5">
-      <c r="B8" s="15"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="18"/>
+    <row r="8" spans="1:12" ht="33">
+      <c r="B8" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="164" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="164" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="164" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" s="164" t="s">
+        <v>155</v>
+      </c>
+      <c r="G8" s="165" t="s">
+        <v>154</v>
+      </c>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" ht="16.5">
       <c r="B9" s="15"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="164"/>
+      <c r="D9" s="164"/>
+      <c r="E9" s="164"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="165"/>
       <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:12" ht="16.5">
       <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="18"/>
+      <c r="C10" s="164"/>
+      <c r="D10" s="164"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="164"/>
+      <c r="G10" s="165"/>
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" ht="16.5">
       <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="18"/>
+      <c r="C11" s="164"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="165"/>
       <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:12" ht="16.5">
       <c r="B12" s="15"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="18"/>
+      <c r="C12" s="164"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="165"/>
       <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:12" ht="16.5">
       <c r="B13" s="15"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
+      <c r="E13" s="164"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="165"/>
       <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:12" ht="16.5">
       <c r="B14" s="15"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
+      <c r="E14" s="164"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="165"/>
       <c r="L14" s="8"/>
     </row>
     <row r="15" spans="1:12" ht="16.5">
@@ -5219,10 +5257,10 @@
       <c r="E5" s="28">
         <v>5</v>
       </c>
-      <c r="F5" s="167">
+      <c r="F5" s="166">
         <v>42443</v>
       </c>
-      <c r="G5" s="167">
+      <c r="G5" s="166">
         <v>42443</v>
       </c>
       <c r="H5" s="29"/>
@@ -5241,10 +5279,10 @@
       <c r="E6" s="28">
         <v>5</v>
       </c>
-      <c r="F6" s="167">
+      <c r="F6" s="166">
         <v>42443</v>
       </c>
-      <c r="G6" s="167">
+      <c r="G6" s="166">
         <v>42443</v>
       </c>
       <c r="H6" s="29"/>
@@ -5263,10 +5301,10 @@
       <c r="E7" s="28">
         <v>5</v>
       </c>
-      <c r="F7" s="167">
+      <c r="F7" s="166">
         <v>42443</v>
       </c>
-      <c r="G7" s="167">
+      <c r="G7" s="166">
         <v>42443</v>
       </c>
       <c r="H7" s="29"/>
@@ -5285,10 +5323,10 @@
       <c r="E8" s="28">
         <v>2</v>
       </c>
-      <c r="F8" s="167">
+      <c r="F8" s="166">
         <v>42443</v>
       </c>
-      <c r="G8" s="167">
+      <c r="G8" s="166">
         <v>42443</v>
       </c>
       <c r="H8" s="29"/>
@@ -5305,10 +5343,10 @@
       <c r="E9" s="28">
         <v>1</v>
       </c>
-      <c r="F9" s="167">
+      <c r="F9" s="166">
         <v>42443</v>
       </c>
-      <c r="G9" s="167">
+      <c r="G9" s="166">
         <v>42443</v>
       </c>
       <c r="H9" s="29"/>
@@ -5394,23 +5432,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:IZ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="33" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" style="33" customWidth="1"/>
     <col min="2" max="2" width="44.5703125" style="33" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="33" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" style="33" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" style="33" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="37.85546875" style="33" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" style="33" customWidth="1"/>
     <col min="8" max="8" width="21.5703125" style="33" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" style="33" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="27.42578125" style="33" customWidth="1"/>
-    <col min="11" max="11" width="2.42578125" style="33" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" style="33" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="33"/>
     <col min="13" max="13" width="4.7109375" style="33" customWidth="1"/>
     <col min="14" max="14" width="6.28515625" style="33" customWidth="1"/>
@@ -5427,15 +5465,15 @@
       <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:260" ht="18" customHeight="1">
-      <c r="A2" s="181"/>
-      <c r="B2" s="181"/>
-      <c r="C2" s="181"/>
-      <c r="D2" s="181"/>
-      <c r="E2" s="182"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
+      <c r="A2" s="169"/>
+      <c r="B2" s="169"/>
+      <c r="C2" s="169"/>
+      <c r="D2" s="169"/>
+      <c r="E2" s="170"/>
+      <c r="F2" s="169"/>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
       <c r="J2" s="40"/>
       <c r="IQ2" s="30" t="s">
         <v>44</v>
@@ -5504,32 +5542,32 @@
       <c r="J4" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="L4" s="177" t="s">
+      <c r="L4" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="125">
+      <c r="M4" s="124">
         <v>5</v>
       </c>
-      <c r="N4" s="142">
+      <c r="N4" s="141">
         <v>5</v>
       </c>
-      <c r="O4" s="126">
+      <c r="O4" s="125">
         <v>10</v>
       </c>
-      <c r="P4" s="127">
+      <c r="P4" s="126">
         <v>15</v>
       </c>
-      <c r="Q4" s="128">
+      <c r="Q4" s="127">
         <v>20</v>
       </c>
-      <c r="R4" s="129">
+      <c r="R4" s="128">
         <v>25</v>
       </c>
-      <c r="S4" s="123"/>
-      <c r="T4" s="179" t="s">
+      <c r="S4" s="122"/>
+      <c r="T4" s="183" t="s">
         <v>61</v>
       </c>
-      <c r="U4" s="180"/>
+      <c r="U4" s="184"/>
       <c r="AD4" s="31" t="s">
         <v>45</v>
       </c>
@@ -5542,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="77" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C5" s="78">
         <v>3</v>
@@ -5555,42 +5593,47 @@
         <v>9</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G5" s="77" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H5" s="78" t="s">
         <v>95</v>
       </c>
       <c r="I5" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="79"/>
-      <c r="L5" s="177"/>
-      <c r="M5" s="125">
+        <v>152</v>
+      </c>
+      <c r="J5" s="173" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="181"/>
+      <c r="M5" s="124">
         <v>4</v>
       </c>
-      <c r="N5" s="143">
+      <c r="N5" s="142">
         <v>4</v>
       </c>
-      <c r="O5" s="130">
+      <c r="O5" s="129">
         <v>8</v>
       </c>
-      <c r="P5" s="131">
+      <c r="P5" s="130">
         <v>12</v>
       </c>
-      <c r="Q5" s="129">
+      <c r="Q5" s="128">
         <v>16</v>
       </c>
-      <c r="R5" s="129">
+      <c r="R5" s="128">
         <v>20</v>
       </c>
-      <c r="S5" s="123"/>
-      <c r="T5" s="148" t="s">
+      <c r="S5" s="122"/>
+      <c r="T5" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="U5" s="149" t="s">
+      <c r="U5" s="148" t="s">
         <v>55</v>
       </c>
       <c r="IR5" s="32" t="s">
@@ -5624,12 +5667,12 @@
       </c>
     </row>
     <row r="6" spans="1:260" ht="55.5" customHeight="1" thickBot="1">
-      <c r="A6" s="80">
+      <c r="A6" s="79">
         <f>A5+1</f>
         <v>2</v>
       </c>
       <c r="B6" s="77" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C6" s="78">
         <v>4</v>
@@ -5642,42 +5685,44 @@
         <v>12</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="77" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H6" s="78" t="s">
         <v>95</v>
       </c>
       <c r="I6" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="J6" s="79"/>
-      <c r="L6" s="177"/>
-      <c r="M6" s="125">
+        <v>152</v>
+      </c>
+      <c r="J6" s="173" t="s">
+        <v>127</v>
+      </c>
+      <c r="L6" s="181"/>
+      <c r="M6" s="124">
         <v>3</v>
       </c>
-      <c r="N6" s="144">
+      <c r="N6" s="143">
         <v>3</v>
       </c>
-      <c r="O6" s="132">
+      <c r="O6" s="131">
         <v>6</v>
       </c>
-      <c r="P6" s="126">
+      <c r="P6" s="125">
         <v>9</v>
       </c>
-      <c r="Q6" s="129">
+      <c r="Q6" s="128">
         <v>12</v>
       </c>
-      <c r="R6" s="129">
+      <c r="R6" s="128">
         <v>15</v>
       </c>
-      <c r="S6" s="123"/>
-      <c r="T6" s="150">
+      <c r="S6" s="122"/>
+      <c r="T6" s="149">
         <v>1</v>
       </c>
-      <c r="U6" s="151" t="s">
+      <c r="U6" s="150" t="s">
         <v>67</v>
       </c>
       <c r="IR6" s="32"/>
@@ -5709,12 +5754,12 @@
       </c>
     </row>
     <row r="7" spans="1:260" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="80">
+      <c r="A7" s="79">
         <f t="shared" ref="A7:A20" si="1">A6+1</f>
         <v>3</v>
       </c>
       <c r="B7" s="77" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C7" s="78">
         <v>2</v>
@@ -5722,45 +5767,50 @@
       <c r="D7" s="78">
         <v>4</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="80">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G7" s="77" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H7" s="78"/>
       <c r="I7" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="J7" s="82"/>
-      <c r="L7" s="177"/>
-      <c r="M7" s="125">
+        <v>152</v>
+      </c>
+      <c r="J7" s="173" t="s">
+        <v>127</v>
+      </c>
+      <c r="K7" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="181"/>
+      <c r="M7" s="124">
         <v>2</v>
       </c>
-      <c r="N7" s="145">
+      <c r="N7" s="144">
         <v>2</v>
       </c>
-      <c r="O7" s="134">
+      <c r="O7" s="133">
         <v>4</v>
       </c>
-      <c r="P7" s="135">
+      <c r="P7" s="134">
         <v>6</v>
       </c>
-      <c r="Q7" s="136">
+      <c r="Q7" s="135">
         <v>8</v>
       </c>
-      <c r="R7" s="126">
+      <c r="R7" s="125">
         <v>10</v>
       </c>
-      <c r="S7" s="147"/>
-      <c r="T7" s="150">
+      <c r="S7" s="146"/>
+      <c r="T7" s="149">
         <v>2</v>
       </c>
-      <c r="U7" s="152" t="s">
+      <c r="U7" s="151" t="s">
         <v>68</v>
       </c>
       <c r="IR7" s="32"/>
@@ -5792,12 +5842,12 @@
       </c>
     </row>
     <row r="8" spans="1:260" ht="58.5" customHeight="1" thickBot="1">
-      <c r="A8" s="80">
+      <c r="A8" s="79">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="B8" s="77" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C8" s="78">
         <v>5</v>
@@ -5805,47 +5855,49 @@
       <c r="D8" s="78">
         <v>2</v>
       </c>
-      <c r="E8" s="81">
+      <c r="E8" s="80">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G8" s="77" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H8" s="78" t="s">
         <v>95</v>
       </c>
       <c r="I8" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="J8" s="82"/>
-      <c r="L8" s="177"/>
-      <c r="M8" s="125">
+        <v>152</v>
+      </c>
+      <c r="J8" s="173" t="s">
+        <v>127</v>
+      </c>
+      <c r="L8" s="181"/>
+      <c r="M8" s="124">
         <v>1</v>
       </c>
-      <c r="N8" s="146">
+      <c r="N8" s="145">
         <v>1</v>
       </c>
-      <c r="O8" s="137">
+      <c r="O8" s="136">
         <v>2</v>
       </c>
-      <c r="P8" s="133">
+      <c r="P8" s="132">
         <v>3</v>
       </c>
-      <c r="Q8" s="138">
+      <c r="Q8" s="137">
         <v>4</v>
       </c>
-      <c r="R8" s="132">
+      <c r="R8" s="131">
         <v>5</v>
       </c>
-      <c r="S8" s="123"/>
-      <c r="T8" s="150">
+      <c r="S8" s="122"/>
+      <c r="T8" s="149">
         <v>3</v>
       </c>
-      <c r="U8" s="152" t="s">
+      <c r="U8" s="151" t="s">
         <v>69</v>
       </c>
       <c r="IR8" s="32"/>
@@ -5877,12 +5929,12 @@
       </c>
     </row>
     <row r="9" spans="1:260" ht="56.25" customHeight="1">
-      <c r="A9" s="80">
+      <c r="A9" s="79">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="B9" s="77" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="78">
         <v>3</v>
@@ -5890,45 +5942,50 @@
       <c r="D9" s="78">
         <v>1</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="80">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G9" s="77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H9" s="78" t="s">
         <v>95</v>
       </c>
       <c r="I9" s="78" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="82"/>
-      <c r="L9" s="125"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="140">
+        <v>152</v>
+      </c>
+      <c r="J9" s="173" t="s">
+        <v>127</v>
+      </c>
+      <c r="K9" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="124"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="139">
         <v>1</v>
       </c>
-      <c r="O9" s="141">
+      <c r="O9" s="140">
         <v>2</v>
       </c>
-      <c r="P9" s="140">
+      <c r="P9" s="139">
         <v>3</v>
       </c>
-      <c r="Q9" s="141">
+      <c r="Q9" s="140">
         <v>4</v>
       </c>
-      <c r="R9" s="140">
+      <c r="R9" s="139">
         <v>5</v>
       </c>
       <c r="S9" s="34"/>
-      <c r="T9" s="150">
+      <c r="T9" s="149">
         <v>4</v>
       </c>
-      <c r="U9" s="152" t="s">
+      <c r="U9" s="151" t="s">
         <v>76</v>
       </c>
       <c r="IR9" s="32"/>
@@ -5960,36 +6017,36 @@
       </c>
     </row>
     <row r="10" spans="1:260" ht="18" customHeight="1">
-      <c r="A10" s="80">
+      <c r="A10" s="79">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="B10" s="77"/>
       <c r="C10" s="78"/>
       <c r="D10" s="78"/>
-      <c r="E10" s="81">
+      <c r="E10" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F10" s="83"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="77"/>
       <c r="H10" s="78"/>
       <c r="I10" s="78"/>
-      <c r="J10" s="82"/>
-      <c r="L10" s="125"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="178" t="s">
+      <c r="J10" s="81"/>
+      <c r="L10" s="124"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="182" t="s">
         <v>55</v>
       </c>
-      <c r="O10" s="178"/>
-      <c r="P10" s="178"/>
-      <c r="Q10" s="178"/>
-      <c r="R10" s="178"/>
+      <c r="O10" s="182"/>
+      <c r="P10" s="182"/>
+      <c r="Q10" s="182"/>
+      <c r="R10" s="182"/>
       <c r="S10" s="35"/>
-      <c r="T10" s="150">
+      <c r="T10" s="149">
         <v>5</v>
       </c>
-      <c r="U10" s="152" t="s">
+      <c r="U10" s="151" t="s">
         <v>70</v>
       </c>
       <c r="IR10" s="53"/>
@@ -6012,34 +6069,34 @@
       </c>
     </row>
     <row r="11" spans="1:260" ht="18" customHeight="1">
-      <c r="A11" s="80">
+      <c r="A11" s="79">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="B11" s="77"/>
       <c r="C11" s="78"/>
       <c r="D11" s="78"/>
-      <c r="E11" s="81">
+      <c r="E11" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F11" s="83"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="77"/>
       <c r="H11" s="78"/>
       <c r="I11" s="78"/>
-      <c r="J11" s="82"/>
-      <c r="L11" s="124"/>
+      <c r="J11" s="81"/>
+      <c r="L11" s="123"/>
       <c r="M11" s="35"/>
-      <c r="N11" s="124"/>
+      <c r="N11" s="123"/>
       <c r="O11" s="35"/>
       <c r="P11" s="35"/>
       <c r="Q11" s="35"/>
       <c r="R11" s="35"/>
       <c r="S11" s="35"/>
-      <c r="T11" s="148" t="s">
+      <c r="T11" s="147" t="s">
         <v>62</v>
       </c>
-      <c r="U11" s="153" t="s">
+      <c r="U11" s="152" t="s">
         <v>49</v>
       </c>
       <c r="IR11" s="53"/>
@@ -6062,23 +6119,23 @@
       </c>
     </row>
     <row r="12" spans="1:260" ht="18" customHeight="1">
-      <c r="A12" s="80">
+      <c r="A12" s="79">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="B12" s="77"/>
       <c r="C12" s="78"/>
       <c r="D12" s="78"/>
-      <c r="E12" s="81">
+      <c r="E12" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F12" s="83"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="77"/>
       <c r="H12" s="78"/>
       <c r="I12" s="78"/>
-      <c r="J12" s="82"/>
-      <c r="L12" s="124"/>
+      <c r="J12" s="81"/>
+      <c r="L12" s="123"/>
       <c r="M12" s="35"/>
       <c r="N12" s="35"/>
       <c r="O12" s="35"/>
@@ -6086,10 +6143,10 @@
       <c r="Q12" s="35"/>
       <c r="R12" s="35"/>
       <c r="S12" s="35"/>
-      <c r="T12" s="150">
+      <c r="T12" s="149">
         <v>1</v>
       </c>
-      <c r="U12" s="154" t="s">
+      <c r="U12" s="153" t="s">
         <v>72</v>
       </c>
       <c r="IR12" s="53"/>
@@ -6104,23 +6161,23 @@
       <c r="IY12" s="56"/>
     </row>
     <row r="13" spans="1:260" ht="18" customHeight="1">
-      <c r="A13" s="80">
+      <c r="A13" s="79">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="B13" s="77"/>
       <c r="C13" s="78"/>
       <c r="D13" s="78"/>
-      <c r="E13" s="81">
+      <c r="E13" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F13" s="83"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="77"/>
       <c r="H13" s="78"/>
       <c r="I13" s="78"/>
-      <c r="J13" s="82"/>
-      <c r="L13" s="124"/>
+      <c r="J13" s="81"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="35"/>
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
@@ -6128,10 +6185,10 @@
       <c r="Q13" s="35"/>
       <c r="R13" s="35"/>
       <c r="S13" s="35"/>
-      <c r="T13" s="150">
+      <c r="T13" s="149">
         <v>2</v>
       </c>
-      <c r="U13" s="151" t="s">
+      <c r="U13" s="150" t="s">
         <v>71</v>
       </c>
       <c r="IR13" s="53"/>
@@ -6144,23 +6201,23 @@
       <c r="IY13" s="46"/>
     </row>
     <row r="14" spans="1:260" ht="18" customHeight="1">
-      <c r="A14" s="80">
+      <c r="A14" s="79">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="B14" s="77"/>
       <c r="C14" s="78"/>
       <c r="D14" s="78"/>
-      <c r="E14" s="81">
+      <c r="E14" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="83"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="77"/>
       <c r="H14" s="78"/>
       <c r="I14" s="78"/>
-      <c r="J14" s="82"/>
-      <c r="L14" s="124"/>
+      <c r="J14" s="81"/>
+      <c r="L14" s="123"/>
       <c r="M14" s="35"/>
       <c r="N14" s="35"/>
       <c r="O14" s="35"/>
@@ -6168,10 +6225,10 @@
       <c r="Q14" s="35"/>
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
-      <c r="T14" s="150">
+      <c r="T14" s="149">
         <v>3</v>
       </c>
-      <c r="U14" s="152" t="s">
+      <c r="U14" s="151" t="s">
         <v>73</v>
       </c>
       <c r="IR14" s="53"/>
@@ -6184,22 +6241,22 @@
       <c r="IY14" s="58"/>
     </row>
     <row r="15" spans="1:260" ht="18" customHeight="1">
-      <c r="A15" s="80">
+      <c r="A15" s="79">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="B15" s="77"/>
       <c r="C15" s="78"/>
       <c r="D15" s="78"/>
-      <c r="E15" s="81">
+      <c r="E15" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="83"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="77"/>
       <c r="H15" s="78"/>
       <c r="I15" s="78"/>
-      <c r="J15" s="82"/>
+      <c r="J15" s="81"/>
       <c r="L15" s="48"/>
       <c r="M15" s="35"/>
       <c r="N15" s="35"/>
@@ -6208,10 +6265,10 @@
       <c r="Q15" s="35"/>
       <c r="R15" s="35"/>
       <c r="S15" s="35"/>
-      <c r="T15" s="150">
+      <c r="T15" s="149">
         <v>4</v>
       </c>
-      <c r="U15" s="152" t="s">
+      <c r="U15" s="151" t="s">
         <v>74</v>
       </c>
       <c r="IR15" s="59" t="s">
@@ -6226,22 +6283,22 @@
       <c r="IY15" s="58"/>
     </row>
     <row r="16" spans="1:260" ht="18" customHeight="1">
-      <c r="A16" s="80">
+      <c r="A16" s="79">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="77"/>
       <c r="C16" s="78"/>
       <c r="D16" s="78"/>
-      <c r="E16" s="81">
+      <c r="E16" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F16" s="83"/>
+      <c r="F16" s="82"/>
       <c r="G16" s="77"/>
       <c r="H16" s="78"/>
       <c r="I16" s="78"/>
-      <c r="J16" s="82"/>
+      <c r="J16" s="81"/>
       <c r="L16" s="48"/>
       <c r="M16" s="35"/>
       <c r="N16" s="35"/>
@@ -6250,10 +6307,10 @@
       <c r="Q16" s="35"/>
       <c r="R16" s="35"/>
       <c r="S16" s="35"/>
-      <c r="T16" s="150">
+      <c r="T16" s="149">
         <v>5</v>
       </c>
-      <c r="U16" s="154" t="s">
+      <c r="U16" s="153" t="s">
         <v>75</v>
       </c>
       <c r="IR16" s="53" t="s">
@@ -6270,22 +6327,22 @@
       <c r="IY16" s="61"/>
     </row>
     <row r="17" spans="1:259" ht="18" customHeight="1">
-      <c r="A17" s="80">
+      <c r="A17" s="79">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="78"/>
       <c r="D17" s="78"/>
-      <c r="E17" s="81">
+      <c r="E17" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="83"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="77"/>
       <c r="H17" s="78"/>
       <c r="I17" s="78"/>
-      <c r="J17" s="82"/>
+      <c r="J17" s="81"/>
       <c r="L17" s="48"/>
       <c r="M17" s="35"/>
       <c r="N17" s="35"/>
@@ -6294,8 +6351,8 @@
       <c r="Q17" s="35"/>
       <c r="R17" s="35"/>
       <c r="S17" s="35"/>
-      <c r="T17" s="155"/>
-      <c r="U17" s="153" t="s">
+      <c r="T17" s="154"/>
+      <c r="U17" s="152" t="s">
         <v>66</v>
       </c>
       <c r="IR17" s="53" t="s">
@@ -6312,22 +6369,22 @@
       <c r="IY17" s="61"/>
     </row>
     <row r="18" spans="1:259" ht="18" customHeight="1">
-      <c r="A18" s="80">
+      <c r="A18" s="79">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="B18" s="77"/>
       <c r="C18" s="78"/>
       <c r="D18" s="78"/>
-      <c r="E18" s="81">
+      <c r="E18" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F18" s="83"/>
+      <c r="F18" s="82"/>
       <c r="G18" s="77"/>
       <c r="H18" s="78"/>
       <c r="I18" s="78"/>
-      <c r="J18" s="82"/>
+      <c r="J18" s="81"/>
       <c r="L18" s="48"/>
       <c r="M18" s="35"/>
       <c r="N18" s="35"/>
@@ -6336,8 +6393,8 @@
       <c r="Q18" s="35"/>
       <c r="R18" s="35"/>
       <c r="S18" s="35"/>
-      <c r="T18" s="156"/>
-      <c r="U18" s="157" t="s">
+      <c r="T18" s="155"/>
+      <c r="U18" s="156" t="s">
         <v>63</v>
       </c>
       <c r="IR18" s="53" t="s">
@@ -6354,22 +6411,22 @@
       <c r="IY18" s="61"/>
     </row>
     <row r="19" spans="1:259" ht="18" customHeight="1" thickBot="1">
-      <c r="A19" s="80">
+      <c r="A19" s="79">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B19" s="77"/>
       <c r="C19" s="78"/>
       <c r="D19" s="78"/>
-      <c r="E19" s="81">
+      <c r="E19" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="83"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="77"/>
       <c r="H19" s="78"/>
       <c r="I19" s="78"/>
-      <c r="J19" s="82"/>
+      <c r="J19" s="81"/>
       <c r="L19" s="48"/>
       <c r="M19" s="35"/>
       <c r="N19" s="35"/>
@@ -6378,8 +6435,8 @@
       <c r="Q19" s="35"/>
       <c r="R19" s="35"/>
       <c r="S19" s="35"/>
-      <c r="T19" s="158"/>
-      <c r="U19" s="157" t="s">
+      <c r="T19" s="157"/>
+      <c r="U19" s="156" t="s">
         <v>64</v>
       </c>
       <c r="IR19" s="62"/>
@@ -6392,22 +6449,22 @@
       <c r="IY19" s="65"/>
     </row>
     <row r="20" spans="1:259" ht="18" customHeight="1" thickBot="1">
-      <c r="A20" s="80">
+      <c r="A20" s="79">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="B20" s="77"/>
       <c r="C20" s="78"/>
       <c r="D20" s="78"/>
-      <c r="E20" s="81">
+      <c r="E20" s="80">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F20" s="83"/>
+      <c r="F20" s="82"/>
       <c r="G20" s="77"/>
       <c r="H20" s="78"/>
       <c r="I20" s="78"/>
-      <c r="J20" s="82"/>
+      <c r="J20" s="81"/>
       <c r="L20" s="48"/>
       <c r="M20" s="35"/>
       <c r="N20" s="35"/>
@@ -6416,8 +6473,8 @@
       <c r="Q20" s="35"/>
       <c r="R20" s="35"/>
       <c r="S20" s="35"/>
-      <c r="T20" s="159"/>
-      <c r="U20" s="160" t="s">
+      <c r="T20" s="158"/>
+      <c r="U20" s="159" t="s">
         <v>65</v>
       </c>
     </row>
